--- a/opm_hero_property/heroes/60.xlsx
+++ b/opm_hero_property/heroes/60.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="talent" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mechanical" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limiter" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="status" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1197,7 +1198,7 @@
         <v>11027</v>
       </c>
       <c r="D4" t="n">
-        <v>11027</v>
+        <v>11472</v>
       </c>
       <c r="E4" t="n">
         <v>259</v>
@@ -1304,7 +1305,7 @@
         <v>12192</v>
       </c>
       <c r="D5" t="n">
-        <v>12192</v>
+        <v>13141</v>
       </c>
       <c r="E5" t="n">
         <v>389</v>
@@ -1411,7 +1412,7 @@
         <v>13561</v>
       </c>
       <c r="D6" t="n">
-        <v>13561</v>
+        <v>15104</v>
       </c>
       <c r="E6" t="n">
         <v>533</v>
@@ -1518,7 +1519,7 @@
         <v>15137</v>
       </c>
       <c r="D7" t="n">
-        <v>15137</v>
+        <v>19202</v>
       </c>
       <c r="E7" t="n">
         <v>1000</v>
@@ -1625,7 +1626,7 @@
         <v>16917</v>
       </c>
       <c r="D8" t="n">
-        <v>16917</v>
+        <v>24871</v>
       </c>
       <c r="E8" t="n">
         <v>1481</v>
@@ -1732,7 +1733,7 @@
         <v>18972</v>
       </c>
       <c r="D9" t="n">
-        <v>18972</v>
+        <v>32503</v>
       </c>
       <c r="E9" t="n">
         <v>1955</v>
@@ -1839,7 +1840,7 @@
         <v>20068</v>
       </c>
       <c r="D10" t="n">
-        <v>20068</v>
+        <v>38859</v>
       </c>
       <c r="E10" t="n">
         <v>2310</v>
@@ -1946,7 +1947,7 @@
         <v>21369</v>
       </c>
       <c r="D11" t="n">
-        <v>21369</v>
+        <v>46663</v>
       </c>
       <c r="E11" t="n">
         <v>2695</v>
@@ -2053,7 +2054,7 @@
         <v>24109</v>
       </c>
       <c r="D12" t="n">
-        <v>24109</v>
+        <v>60552</v>
       </c>
       <c r="E12" t="n">
         <v>3317</v>
@@ -2160,7 +2161,7 @@
         <v>24657</v>
       </c>
       <c r="D13" t="n">
-        <v>24657</v>
+        <v>62515</v>
       </c>
       <c r="E13" t="n">
         <v>3732</v>
@@ -2267,7 +2268,7 @@
         <v>25204</v>
       </c>
       <c r="D14" t="n">
-        <v>25204</v>
+        <v>64479</v>
       </c>
       <c r="E14" t="n">
         <v>4146</v>
@@ -2374,7 +2375,7 @@
         <v>25752</v>
       </c>
       <c r="D15" t="n">
-        <v>25752</v>
+        <v>66442</v>
       </c>
       <c r="E15" t="n">
         <v>4561</v>
@@ -2481,7 +2482,7 @@
         <v>26300</v>
       </c>
       <c r="D16" t="n">
-        <v>26300</v>
+        <v>68405</v>
       </c>
       <c r="E16" t="n">
         <v>4975</v>
@@ -2588,7 +2589,7 @@
         <v>26848</v>
       </c>
       <c r="D17" t="n">
-        <v>26848</v>
+        <v>70368</v>
       </c>
       <c r="E17" t="n">
         <v>5390</v>
@@ -6874,4 +6875,2652 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AK23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>战斗类型</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>品质</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>pve等级</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>等级强化</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>装备品质%</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>装备强化%</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>天赋</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>研究所核心</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>职阶</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>限制器</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>机械核心</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>HeroId</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>EnhancePeriod</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Equips</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>TalentLevel</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>hp</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>atk</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>crit</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>crit_res</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>crit_dmg</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>precise</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>parry</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>dmg_res</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>fury</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>show_level</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>chase</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>academy</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>limiter</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>mechanical</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>aura</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>type_aura</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>60</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>81</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>3,2,1,1,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>29491.53802</v>
+      </c>
+      <c r="U2" t="n">
+        <v>5360.9881845</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2164.150152</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X2" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>800</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1400</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>121</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>3,2,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>41919.83162300001</v>
+      </c>
+      <c r="U3" t="n">
+        <v>7671.864041</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3349.933535</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X3" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>800</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1400</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>121</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>161</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>60</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>161</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>76348.270766</v>
+      </c>
+      <c r="U4" t="n">
+        <v>13436.3235</v>
+      </c>
+      <c r="V4" t="n">
+        <v>7230.55241</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X4" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>800</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1400</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>161</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>60</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>161</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>76348.270766</v>
+      </c>
+      <c r="U5" t="n">
+        <v>13436.3235</v>
+      </c>
+      <c r="V5" t="n">
+        <v>7230.55241</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X5" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>870</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1470</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>161</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>60</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>161</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>4,3,2,2,1,1,0,0,2</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>68188.88972599999</v>
+      </c>
+      <c r="U6" t="n">
+        <v>11984.9835</v>
+      </c>
+      <c r="V6" t="n">
+        <v>6408.55201</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X6" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>870</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>470</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>240</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>60</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>240</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>5,3,3,3,0,2,1,0,0</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>282755.465447</v>
+      </c>
+      <c r="U7" t="n">
+        <v>46487.91412</v>
+      </c>
+      <c r="V7" t="n">
+        <v>31553.200212</v>
+      </c>
+      <c r="W7" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1650</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1930</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>240</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>60</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>240</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,2,1,0,1</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>245311.570767</v>
+      </c>
+      <c r="U8" t="n">
+        <v>40401.62132</v>
+      </c>
+      <c r="V8" t="n">
+        <v>27193.498932</v>
+      </c>
+      <c r="W8" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1650</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>930</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>240</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>60</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>240</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>254672.544437</v>
+      </c>
+      <c r="U9" t="n">
+        <v>41923.19452</v>
+      </c>
+      <c r="V9" t="n">
+        <v>28283.424252</v>
+      </c>
+      <c r="W9" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1650</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1180</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>240</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>60</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>240</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>20</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>264033.518107</v>
+      </c>
+      <c r="U10" t="n">
+        <v>43444.76772</v>
+      </c>
+      <c r="V10" t="n">
+        <v>29373.349572</v>
+      </c>
+      <c r="W10" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1650</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1430</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>240</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>60</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>240</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>30</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,1,0,10</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>273394.491777</v>
+      </c>
+      <c r="U11" t="n">
+        <v>44966.34092</v>
+      </c>
+      <c r="V11" t="n">
+        <v>30463.274892</v>
+      </c>
+      <c r="W11" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1650</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1680</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>240</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>60</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>240</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>30</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,0,0,5</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>273394.491777</v>
+      </c>
+      <c r="U12" t="n">
+        <v>44966.34092</v>
+      </c>
+      <c r="V12" t="n">
+        <v>30463.274892</v>
+      </c>
+      <c r="W12" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1580</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1610</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>260</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30</v>
+      </c>
+      <c r="H13" t="n">
+        <v>35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>60</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>260</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>30</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,0,6</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>404579.241321</v>
+      </c>
+      <c r="U13" t="n">
+        <v>66975.786668</v>
+      </c>
+      <c r="V13" t="n">
+        <v>51813.607751</v>
+      </c>
+      <c r="W13" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1720</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1750</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>260</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" t="n">
+        <v>35</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>60</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>260</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>30</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>404579.241321</v>
+      </c>
+      <c r="U14" t="n">
+        <v>66975.786668</v>
+      </c>
+      <c r="V14" t="n">
+        <v>51813.607751</v>
+      </c>
+      <c r="W14" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1790</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1820</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>300</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>60</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>300</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>30</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>963679.0647094999</v>
+      </c>
+      <c r="U15" t="n">
+        <v>164621.9378</v>
+      </c>
+      <c r="V15" t="n">
+        <v>148661.2625</v>
+      </c>
+      <c r="W15" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>2070</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>2100</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>400</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" t="n">
+        <v>95</v>
+      </c>
+      <c r="I16" t="n">
+        <v>85</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>60</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16</v>
+      </c>
+      <c r="O16" t="n">
+        <v>400</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>30</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>5095447.236800999</v>
+      </c>
+      <c r="U16" t="n">
+        <v>847637.579792</v>
+      </c>
+      <c r="V16" t="n">
+        <v>736347.2716079999</v>
+      </c>
+      <c r="W16" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>2630</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>2660</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>500</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" t="n">
+        <v>160</v>
+      </c>
+      <c r="I17" t="n">
+        <v>150</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>60</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16</v>
+      </c>
+      <c r="O17" t="n">
+        <v>500</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>30</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>8323753.6012705</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1386397.099568</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1198505.926856</v>
+      </c>
+      <c r="W17" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>3540</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>3570</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>161</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>60</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>256</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>229911.2399015</v>
+      </c>
+      <c r="U18" t="n">
+        <v>41288.492262</v>
+      </c>
+      <c r="V18" t="n">
+        <v>24801.456286</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X18" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>870</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>470</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>256</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>200</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>60</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>260</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>10</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,0,0,2</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>306509.297514</v>
+      </c>
+      <c r="U19" t="n">
+        <v>53358.235813</v>
+      </c>
+      <c r="V19" t="n">
+        <v>35065.59090700001</v>
+      </c>
+      <c r="W19" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1580</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1110</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>240</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>60</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>264</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>20</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>393746.153973</v>
+      </c>
+      <c r="U20" t="n">
+        <v>66331.85569950001</v>
+      </c>
+      <c r="V20" t="n">
+        <v>49631.141084</v>
+      </c>
+      <c r="W20" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1650</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1430</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>264</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>260</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" t="n">
+        <v>35</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>60</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>266</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>30</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>450365.3068045</v>
+      </c>
+      <c r="U21" t="n">
+        <v>77831.305364</v>
+      </c>
+      <c r="V21" t="n">
+        <v>59491.2825695</v>
+      </c>
+      <c r="W21" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1790</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1820</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>266</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>300</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" t="n">
+        <v>55</v>
+      </c>
+      <c r="I22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>60</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>270</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>30</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>517425.21305</v>
+      </c>
+      <c r="U22" t="n">
+        <v>94298.7761</v>
+      </c>
+      <c r="V22" t="n">
+        <v>73370.3934975</v>
+      </c>
+      <c r="W22" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>2070</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>2100</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>400</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" t="n">
+        <v>95</v>
+      </c>
+      <c r="I23" t="n">
+        <v>85</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>60</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>16</v>
+      </c>
+      <c r="O23" t="n">
+        <v>280</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>30</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>654521.0965645</v>
+      </c>
+      <c r="U23" t="n">
+        <v>128019.866704</v>
+      </c>
+      <c r="V23" t="n">
+        <v>101536.760824</v>
+      </c>
+      <c r="W23" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>2630</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>2660</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/opm_hero_property/heroes/60.xlsx
+++ b/opm_hero_property/heroes/60.xlsx
@@ -6883,7 +6883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7077,6 +7077,46 @@
           <t>type_aura</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>基础战力</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>装备战力</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>天赋战力</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>研究所战力</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>职阶战力</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>机械核心战力</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>限制器战力</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>总战力</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7085,31 +7125,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7121,106 +7161,130 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>3,2,1,1,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>29491.53802</v>
+        <v>5230324.236800999</v>
       </c>
       <c r="U2" t="n">
-        <v>5360.9881845</v>
+        <v>871365.579792</v>
       </c>
       <c r="V2" t="n">
-        <v>2164.150152</v>
+        <v>758187.2716079999</v>
       </c>
       <c r="W2" t="n">
-        <v>2100</v>
+        <v>3380</v>
       </c>
       <c r="X2" t="n">
-        <v>800</v>
+        <v>1440</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
-        <v>800</v>
+        <v>2630</v>
       </c>
       <c r="AA2" t="n">
-        <v>1200</v>
+        <v>2160</v>
       </c>
       <c r="AB2" t="n">
-        <v>1400</v>
+        <v>2660</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="AE2" t="n">
         <v>5000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="n">
+        <v>11269664.00356</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1747982.5455518</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2006045.6</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>15619003.0491118</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pve</t>
+          <t>pvp</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -7232,73 +7296,97 @@
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3,2,2,2,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>41919.83162300001</v>
+        <v>654521.0965645</v>
       </c>
       <c r="U3" t="n">
-        <v>7671.864041</v>
+        <v>128019.866704</v>
       </c>
       <c r="V3" t="n">
-        <v>3349.933535</v>
+        <v>101536.760824</v>
       </c>
       <c r="W3" t="n">
-        <v>2100</v>
+        <v>3380</v>
       </c>
       <c r="X3" t="n">
-        <v>800</v>
+        <v>1440</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
-        <v>800</v>
+        <v>2630</v>
       </c>
       <c r="AA3" t="n">
-        <v>1200</v>
+        <v>2160</v>
       </c>
       <c r="AB3" t="n">
-        <v>1400</v>
+        <v>2660</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="AE3" t="n">
         <v>5000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>1277154.26542</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>199143.5361401</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>479008.6</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2138374.0515601</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7307,16 +7395,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -7325,10 +7413,10 @@
         <v>-1</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -7343,10 +7431,10 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -7357,50 +7445,50 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,0,0,0,0</t>
+          <t>3,2,1,1,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>76348.270766</v>
+        <v>7581.044</v>
       </c>
       <c r="U4" t="n">
-        <v>13436.3235</v>
+        <v>1562.6209</v>
       </c>
       <c r="V4" t="n">
-        <v>7230.55241</v>
+        <v>567.1744</v>
       </c>
       <c r="W4" t="n">
-        <v>2100</v>
+        <v>600</v>
       </c>
       <c r="X4" t="n">
-        <v>800</v>
+        <v>160</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>800</v>
+        <v>160</v>
       </c>
       <c r="AA4" t="n">
-        <v>1200</v>
+        <v>240</v>
       </c>
       <c r="AB4" t="n">
-        <v>1400</v>
+        <v>80</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="n">
         <v>5000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -7410,6 +7498,30 @@
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>18901.53101</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>4456.85</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>23358.38101</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7418,16 +7530,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -7436,13 +7548,13 @@
         <v>-1</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -7454,10 +7566,10 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -7468,59 +7580,83 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,1,0,0,1</t>
+          <t>3,2,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>76348.270766</v>
+        <v>20336.9806</v>
       </c>
       <c r="U5" t="n">
-        <v>13436.3235</v>
+        <v>3896.3602</v>
       </c>
       <c r="V5" t="n">
-        <v>7230.55241</v>
+        <v>1729.227</v>
       </c>
       <c r="W5" t="n">
-        <v>2100</v>
+        <v>777</v>
       </c>
       <c r="X5" t="n">
-        <v>800</v>
+        <v>320</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
-        <v>870</v>
+        <v>320</v>
       </c>
       <c r="AA5" t="n">
-        <v>1200</v>
+        <v>480</v>
       </c>
       <c r="AB5" t="n">
-        <v>1470</v>
+        <v>160</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="AE5" t="n">
         <v>5000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>48106.17123</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>11828.8</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>59934.97123</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7544,16 +7680,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6" t="n">
         <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -7575,39 +7711,39 @@
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4,3,2,2,1,1,0,0,2</t>
+          <t>4,3,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>68188.88972599999</v>
+        <v>56984.9052</v>
       </c>
       <c r="U6" t="n">
-        <v>11984.9835</v>
+        <v>10068.7</v>
       </c>
       <c r="V6" t="n">
-        <v>6408.55201</v>
+        <v>5588.002</v>
       </c>
       <c r="W6" t="n">
-        <v>2100</v>
+        <v>1300</v>
       </c>
       <c r="X6" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Y6" t="n">
         <v>15000</v>
       </c>
       <c r="Z6" t="n">
-        <v>870</v>
+        <v>600</v>
       </c>
       <c r="AA6" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>470</v>
+        <v>300</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -7622,16 +7758,40 @@
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>115325.6467</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>32682</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>9356.799999999999</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>163524.9467</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7640,31 +7800,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-1</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -7676,10 +7836,10 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -7690,59 +7850,83 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>5,3,3,3,0,2,1,0,0</t>
+          <t>4,3,2,2,0,1,0,0,1</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>282755.465447</v>
+        <v>56984.9052</v>
       </c>
       <c r="U7" t="n">
-        <v>46487.91412</v>
+        <v>10068.7</v>
       </c>
       <c r="V7" t="n">
-        <v>31553.200212</v>
+        <v>5588.002</v>
       </c>
       <c r="W7" t="n">
-        <v>3380</v>
+        <v>1300</v>
       </c>
       <c r="X7" t="n">
-        <v>1440</v>
+        <v>600</v>
       </c>
       <c r="Y7" t="n">
         <v>15000</v>
       </c>
       <c r="Z7" t="n">
-        <v>1650</v>
+        <v>670</v>
       </c>
       <c r="AA7" t="n">
-        <v>2160</v>
+        <v>900</v>
       </c>
       <c r="AB7" t="n">
-        <v>1930</v>
+        <v>370</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE7" t="n">
         <v>5000</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="n">
+        <v>115325.6467</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>32682</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>9538.799999999999</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>163706.9467</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7751,31 +7935,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -7787,10 +7971,10 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -7801,59 +7985,83 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,2,1,0,1</t>
+          <t>4,3,2,2,1,1,0,0,2</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>245311.570767</v>
+        <v>57188.889726</v>
       </c>
       <c r="U8" t="n">
-        <v>40401.62132</v>
+        <v>10104.9835</v>
       </c>
       <c r="V8" t="n">
-        <v>27193.498932</v>
+        <v>5608.55201</v>
       </c>
       <c r="W8" t="n">
-        <v>3380</v>
+        <v>1300</v>
       </c>
       <c r="X8" t="n">
-        <v>1440</v>
+        <v>600</v>
       </c>
       <c r="Y8" t="n">
         <v>15000</v>
       </c>
       <c r="Z8" t="n">
-        <v>1650</v>
+        <v>670</v>
       </c>
       <c r="AA8" t="n">
-        <v>2160</v>
+        <v>900</v>
       </c>
       <c r="AB8" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE8" t="n">
         <v>5000</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="n">
+        <v>115325.6467</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>32682</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>572.5032335</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>9538.799999999999</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>164279.4499335</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7877,7 +8085,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H9" t="n">
         <v>25</v>
@@ -7886,7 +8094,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -7908,21 +8116,21 @@
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,1,0,5</t>
+          <t>5,3,3,3,0,2,1,0,0</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>254672.544437</v>
+        <v>243586.4734</v>
       </c>
       <c r="U9" t="n">
-        <v>41923.19452</v>
+        <v>40406.464</v>
       </c>
       <c r="V9" t="n">
-        <v>28283.424252</v>
+        <v>27211.5064</v>
       </c>
       <c r="W9" t="n">
         <v>3380</v>
@@ -7940,7 +8148,7 @@
         <v>2160</v>
       </c>
       <c r="AB9" t="n">
-        <v>1180</v>
+        <v>930</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -7958,13 +8166,37 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="n">
+        <v>523362.9868</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>691676.2368</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7988,7 +8220,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>25</v>
@@ -7997,7 +8229,7 @@
         <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -8019,21 +8251,21 @@
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,2,1,0,1</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>264033.518107</v>
+        <v>244522.570767</v>
       </c>
       <c r="U10" t="n">
-        <v>43444.76772</v>
+        <v>40558.62132</v>
       </c>
       <c r="V10" t="n">
-        <v>29373.349572</v>
+        <v>27320.498932</v>
       </c>
       <c r="W10" t="n">
         <v>3380</v>
@@ -8051,7 +8283,7 @@
         <v>2160</v>
       </c>
       <c r="AB10" t="n">
-        <v>1430</v>
+        <v>930</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -8069,13 +8301,37 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="n">
+        <v>523362.9868</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>2612.689934</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>694288.926734</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8099,7 +8355,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>25</v>
@@ -8108,7 +8364,7 @@
         <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8130,21 +8386,21 @@
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,1,0,10</t>
+          <t>5,3,3,3,2,2,1,0,5</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>273394.491777</v>
+        <v>253883.544437</v>
       </c>
       <c r="U11" t="n">
-        <v>44966.34092</v>
+        <v>42080.19452</v>
       </c>
       <c r="V11" t="n">
-        <v>30463.274892</v>
+        <v>28410.424252</v>
       </c>
       <c r="W11" t="n">
         <v>3380</v>
@@ -8162,7 +8418,7 @@
         <v>2160</v>
       </c>
       <c r="AB11" t="n">
-        <v>1680</v>
+        <v>1180</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8180,13 +8436,37 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>523362.9868</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>29177.089274</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>720853.326074</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8210,13 +8490,13 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
         <v>25</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -8241,21 +8521,21 @@
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,0,0,5</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>273394.491777</v>
+        <v>263244.518107</v>
       </c>
       <c r="U12" t="n">
-        <v>44966.34092</v>
+        <v>43601.76772</v>
       </c>
       <c r="V12" t="n">
-        <v>30463.274892</v>
+        <v>29500.349572</v>
       </c>
       <c r="W12" t="n">
         <v>3380</v>
@@ -8267,13 +8547,13 @@
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>1580</v>
+        <v>1650</v>
       </c>
       <c r="AA12" t="n">
         <v>2160</v>
       </c>
       <c r="AB12" t="n">
-        <v>1610</v>
+        <v>1430</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8288,7 +8568,7 @@
         <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
@@ -8298,6 +8578,30 @@
       </c>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>523362.9868</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>55741.488614</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>747417.725414</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8306,10 +8610,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -8324,13 +8628,13 @@
         <v>30</v>
       </c>
       <c r="H13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8342,10 +8646,10 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8356,17 +8660,17 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,0,6</t>
+          <t>5,3,3,3,4,2,1,0,10</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>404579.241321</v>
+        <v>272605.491777</v>
       </c>
       <c r="U13" t="n">
-        <v>66975.786668</v>
+        <v>45123.34092</v>
       </c>
       <c r="V13" t="n">
-        <v>51813.607751</v>
+        <v>30590.274892</v>
       </c>
       <c r="W13" t="n">
         <v>3380</v>
@@ -8378,37 +8682,61 @@
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>1720</v>
+        <v>1650</v>
       </c>
       <c r="AA13" t="n">
         <v>2160</v>
       </c>
       <c r="AB13" t="n">
-        <v>1750</v>
+        <v>1680</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE13" t="n">
         <v>5000</v>
       </c>
       <c r="AF13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="n">
+        <v>523362.9868</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>82305.88795400001</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>773982.124754</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8417,10 +8745,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8435,13 +8763,13 @@
         <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8453,10 +8781,10 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8467,17 +8795,17 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,0,0,5</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>404579.241321</v>
+        <v>272605.491777</v>
       </c>
       <c r="U14" t="n">
-        <v>66975.786668</v>
+        <v>45123.34092</v>
       </c>
       <c r="V14" t="n">
-        <v>51813.607751</v>
+        <v>30590.274892</v>
       </c>
       <c r="W14" t="n">
         <v>3380</v>
@@ -8489,37 +8817,61 @@
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>1790</v>
+        <v>1580</v>
       </c>
       <c r="AA14" t="n">
         <v>2160</v>
       </c>
       <c r="AB14" t="n">
-        <v>1820</v>
+        <v>1610</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE14" t="n">
         <v>5000</v>
       </c>
       <c r="AF14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="n">
+        <v>523362.9868</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>82305.88795400001</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>38703</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>773800.124754</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8528,10 +8880,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8546,13 +8898,13 @@
         <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -8564,10 +8916,10 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8578,17 +8930,17 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,2,2,0,6</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>963679.0647094999</v>
+        <v>407079.241321</v>
       </c>
       <c r="U15" t="n">
-        <v>164621.9378</v>
+        <v>67783.786668</v>
       </c>
       <c r="V15" t="n">
-        <v>148661.2625</v>
+        <v>52587.607751</v>
       </c>
       <c r="W15" t="n">
         <v>3380</v>
@@ -8600,37 +8952,61 @@
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>2070</v>
+        <v>1720</v>
       </c>
       <c r="AA15" t="n">
         <v>2160</v>
       </c>
       <c r="AB15" t="n">
-        <v>2100</v>
+        <v>1750</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AE15" t="n">
         <v>5000</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="n">
+        <v>806361.72199</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>126170.69190845</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>111419.8</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1191479.61389845</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8639,10 +9015,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8657,13 +9033,13 @@
         <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -8675,10 +9051,10 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -8689,17 +9065,17 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5095447.236800999</v>
+        <v>407079.241321</v>
       </c>
       <c r="U16" t="n">
-        <v>847637.579792</v>
+        <v>67783.786668</v>
       </c>
       <c r="V16" t="n">
-        <v>736347.2716079999</v>
+        <v>52587.607751</v>
       </c>
       <c r="W16" t="n">
         <v>3380</v>
@@ -8711,37 +9087,61 @@
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>2630</v>
+        <v>1790</v>
       </c>
       <c r="AA16" t="n">
         <v>2160</v>
       </c>
       <c r="AB16" t="n">
-        <v>2660</v>
+        <v>1820</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="AE16" t="n">
         <v>5000</v>
       </c>
       <c r="AF16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="n">
+        <v>806361.72199</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>126170.69190845</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>111601.8</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1191661.61389845</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8750,10 +9150,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8768,13 +9168,13 @@
         <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="I17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -8786,10 +9186,10 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -8800,17 +9200,17 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,3,3,3,8</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>8323753.6012705</v>
+        <v>1001174.0647095</v>
       </c>
       <c r="U17" t="n">
-        <v>1386397.099568</v>
+        <v>171478.9378</v>
       </c>
       <c r="V17" t="n">
-        <v>1198505.926856</v>
+        <v>155294.2625</v>
       </c>
       <c r="W17" t="n">
         <v>3380</v>
@@ -8822,70 +9222,94 @@
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>3540</v>
+        <v>2070</v>
       </c>
       <c r="AA17" t="n">
         <v>2160</v>
       </c>
       <c r="AB17" t="n">
-        <v>3570</v>
+        <v>2100</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AE17" t="n">
         <v>5000</v>
       </c>
       <c r="AF17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="n">
+        <v>1849136.6839</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>287800.8110045</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>155697.55</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>685602</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>3092544.2449045</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -8897,106 +9321,130 @@
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,1,0,0,1</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>229911.2399015</v>
+        <v>5230324.236800999</v>
       </c>
       <c r="U18" t="n">
-        <v>41288.492262</v>
+        <v>871365.579792</v>
       </c>
       <c r="V18" t="n">
-        <v>24801.456286</v>
+        <v>758187.2716079999</v>
       </c>
       <c r="W18" t="n">
-        <v>2100</v>
+        <v>3380</v>
       </c>
       <c r="X18" t="n">
-        <v>800</v>
+        <v>1440</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>870</v>
+        <v>2630</v>
       </c>
       <c r="AA18" t="n">
-        <v>1200</v>
+        <v>2160</v>
       </c>
       <c r="AB18" t="n">
-        <v>470</v>
+        <v>2660</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="AE18" t="n">
         <v>5000</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="n">
+        <v>11269664.00356</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1747982.5455518</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2006045.6</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>15619003.0491118</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>500</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>200</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
       </c>
       <c r="G19" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" t="n">
+        <v>160</v>
+      </c>
+      <c r="I19" t="n">
+        <v>150</v>
+      </c>
+      <c r="J19" t="n">
         <v>10</v>
-      </c>
-      <c r="H19" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -9008,31 +9456,31 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,0,0,2</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>306509.297514</v>
+        <v>8633471.601270501</v>
       </c>
       <c r="U19" t="n">
-        <v>53358.235813</v>
+        <v>1440430.099568</v>
       </c>
       <c r="V19" t="n">
-        <v>35065.59090700001</v>
+        <v>1247737.926856</v>
       </c>
       <c r="W19" t="n">
         <v>3380</v>
@@ -9044,37 +9492,61 @@
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>1580</v>
+        <v>3540</v>
       </c>
       <c r="AA19" t="n">
         <v>2160</v>
       </c>
       <c r="AB19" t="n">
-        <v>1110</v>
+        <v>3570</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AE19" t="n">
         <v>5000</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH19" t="n">
         <v>10</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>2</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="n">
+        <v>18287000.21014</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>2835669.6575717</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1061573.2</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3467427.6</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>25765977.8677117</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -9083,31 +9555,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="G20" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9119,73 +9591,97 @@
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,1,0,0,1</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>393746.153973</v>
+        <v>218911.2399015</v>
       </c>
       <c r="U20" t="n">
-        <v>66331.85569950001</v>
+        <v>39408.492262</v>
       </c>
       <c r="V20" t="n">
-        <v>49631.141084</v>
+        <v>24001.456286</v>
       </c>
       <c r="W20" t="n">
-        <v>3380</v>
+        <v>1300</v>
       </c>
       <c r="X20" t="n">
-        <v>1440</v>
+        <v>600</v>
       </c>
       <c r="Y20" t="n">
         <v>15000</v>
       </c>
       <c r="Z20" t="n">
-        <v>1650</v>
+        <v>670</v>
       </c>
       <c r="AA20" t="n">
-        <v>2160</v>
+        <v>900</v>
       </c>
       <c r="AB20" t="n">
-        <v>1430</v>
+        <v>370</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AE20" t="n">
         <v>5000</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="n">
+        <v>551071.27876</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>32682</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>2751.2313938</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>14696.9</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>32753.8</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>633955.2101538</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9194,31 +9690,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9230,73 +9726,97 @@
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,2,2,0,0,2</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>450365.3068045</v>
+        <v>283409.297514</v>
       </c>
       <c r="U21" t="n">
-        <v>77831.305364</v>
+        <v>49410.235813</v>
       </c>
       <c r="V21" t="n">
-        <v>59491.2825695</v>
+        <v>33385.59090700001</v>
       </c>
       <c r="W21" t="n">
-        <v>3380</v>
+        <v>1700</v>
       </c>
       <c r="X21" t="n">
-        <v>1440</v>
+        <v>900</v>
       </c>
       <c r="Y21" t="n">
         <v>15000</v>
       </c>
       <c r="Z21" t="n">
-        <v>1790</v>
+        <v>1040</v>
       </c>
       <c r="AA21" t="n">
-        <v>2160</v>
+        <v>1350</v>
       </c>
       <c r="AB21" t="n">
-        <v>1820</v>
+        <v>840</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AE21" t="n">
         <v>5000</v>
       </c>
       <c r="AF21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="n">
+        <v>654168.48089</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>49023</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>36371.39144895</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>19028.1</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>65507.60000000001</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>824098.57233895</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -9305,10 +9825,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -9320,16 +9840,16 @@
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9341,31 +9861,31 @@
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>517425.21305</v>
+        <v>393746.153973</v>
       </c>
       <c r="U22" t="n">
-        <v>94298.7761</v>
+        <v>66331.85569950001</v>
       </c>
       <c r="V22" t="n">
-        <v>73370.3934975</v>
+        <v>49631.141084</v>
       </c>
       <c r="W22" t="n">
         <v>3380</v>
@@ -9377,37 +9897,61 @@
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>2070</v>
+        <v>1650</v>
       </c>
       <c r="AA22" t="n">
         <v>2160</v>
       </c>
       <c r="AB22" t="n">
-        <v>2100</v>
+        <v>1430</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AE22" t="n">
         <v>5000</v>
       </c>
       <c r="AF22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="n">
+        <v>829539.6783100001</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>87890.04122255</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>23382.7</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>95389.39999999999</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1150509.01953255</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9416,10 +9960,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -9434,13 +9978,13 @@
         <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9452,10 +9996,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9466,17 +10010,17 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>654521.0965645</v>
+        <v>450365.3068045</v>
       </c>
       <c r="U23" t="n">
-        <v>128019.866704</v>
+        <v>77831.305364</v>
       </c>
       <c r="V23" t="n">
-        <v>101536.760824</v>
+        <v>59491.2825695</v>
       </c>
       <c r="W23" t="n">
         <v>3380</v>
@@ -9488,37 +10032,331 @@
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>2630</v>
+        <v>1790</v>
       </c>
       <c r="AA23" t="n">
         <v>2160</v>
       </c>
       <c r="AB23" t="n">
-        <v>2660</v>
+        <v>1820</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="AE23" t="n">
         <v>5000</v>
       </c>
       <c r="AF23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
       </c>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="n">
+        <v>905968.1502950001</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>141609.688295725</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>30363.65</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>151723</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1343971.688590725</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>300</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" t="n">
+        <v>55</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>60</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>270</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>30</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>517425.21305</v>
+      </c>
+      <c r="U24" t="n">
+        <v>94298.7761</v>
+      </c>
+      <c r="V24" t="n">
+        <v>73370.3934975</v>
+      </c>
+      <c r="W24" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>2070</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>2100</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="n">
+        <v>1026586.108875</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>160305.471875625</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>43173.05</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>260818.2</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1605190.030750625</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>400</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" t="n">
+        <v>95</v>
+      </c>
+      <c r="I25" t="n">
+        <v>85</v>
+      </c>
+      <c r="J25" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>60</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>280</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>30</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>654521.0965645</v>
+      </c>
+      <c r="U25" t="n">
+        <v>128019.866704</v>
+      </c>
+      <c r="V25" t="n">
+        <v>101536.760824</v>
+      </c>
+      <c r="W25" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>2630</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>2660</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="n">
+        <v>1277154.26542</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>199143.5361401</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>479008.6</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2138374.0515601</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/opm_hero_property/heroes/60.xlsx
+++ b/opm_hero_property/heroes/60.xlsx
@@ -997,87 +997,87 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,64993;31,12290;41,4117</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,18423;41,6184</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,7922;31,1472;41,570</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,2207;41,856</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>64993.005</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>12290.4075</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>4117.5396</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>18423.9061</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>6184.1673</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>7922.7225</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>1472.6775</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>570.2692000000001</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>2207.6137</v>
       </c>
       <c r="AB2" t="n">
-        <v>1</v>
+        <v>856.4921000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1104,87 +1104,87 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,64999;31,12292;41,4118</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,18426;41,6185</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,7929;31,1474;41,570</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,2210;41,857</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>64999.82999999999</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>12292.1925</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>4118.1684</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>18426.5819</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>6185.1117</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>7929.5475</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>1474.4625</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>570.898</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>2210.2895</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>857.4365</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1211,87 +1211,87 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,69815;31,13537;41,4705</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,20293;41,7066</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,8448;31,1608;41,635</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,2411;41,954</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>69815.81809650001</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>13537.27730775</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>4705.21473856</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>20293.02331657</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>7066.801525280001</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>8448.143324249999</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>1608.56643675</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>635.78613568</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>2411.31768709</v>
       </c>
       <c r="AB4" t="n">
-        <v>1</v>
+        <v>954.8925358400002</v>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1318,87 +1318,87 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,75270;31,14949;41,5370</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,22409;41,8066</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,9034;31,1760;41,709</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,2638;41,1065</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>75270.532743</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>14949.426744</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>5370.74222868</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>22409.90256672</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>8066.362851090001</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>9034.7628735</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>1760.450328</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>709.27419604</v>
       </c>
       <c r="Z5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>2638.99887264</v>
       </c>
       <c r="AB5" t="n">
-        <v>1</v>
+        <v>1065.26487077</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1425,87 +1425,87 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>21,54460;31,11072;41,4110</t>
+          <t>21,81690;31,16608;41,6153</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>21,54460;31,11072;41,4110</t>
+          <t>21,0;31,24897;41,9241</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>21,27230;31,5536;41,2055</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>21,6483;31,1292;41,531</t>
+          <t>21,9724;31,1938;41,795</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>21,6483;31,1292;41,531</t>
+          <t>21,0;31,2906;41,1194</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>21,3241;31,646;41,265</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>54460</v>
+        <v>81690.38020500001</v>
       </c>
       <c r="O6" t="n">
-        <v>11072</v>
+        <v>16608.75128325</v>
       </c>
       <c r="P6" t="n">
-        <v>4110</v>
+        <v>6153.446273920001</v>
       </c>
       <c r="Q6" t="n">
-        <v>54460</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>11072</v>
+        <v>24897.30906651</v>
       </c>
       <c r="S6" t="n">
-        <v>4110</v>
+        <v>9241.912628960001</v>
       </c>
       <c r="T6" t="n">
-        <v>27230</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>5536</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>2055</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>6483</v>
+        <v>9724.753972500001</v>
       </c>
       <c r="X6" t="n">
-        <v>1292</v>
+        <v>1938.82763025</v>
       </c>
       <c r="Y6" t="n">
-        <v>531</v>
+        <v>795.6490617600001</v>
       </c>
       <c r="Z6" t="n">
-        <v>6483</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>1292</v>
+        <v>2906.39494287</v>
       </c>
       <c r="AB6" t="n">
-        <v>531</v>
+        <v>1194.99200688</v>
       </c>
       <c r="AC6" t="n">
-        <v>3241</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>646</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1532,87 +1532,87 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>21,61399;31,12347;41,5202</t>
+          <t>21,92099;31,18521;41,7788</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>21,61399;31,12347;41,5202</t>
+          <t>21,0;31,27764;41,11697</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>21,30699;31,6173;41,2601</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>21,7236;31,1431;41,652</t>
+          <t>21,10854;31,2146;41,977</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>21,7236;31,1431;41,652</t>
+          <t>21,0;31,3218;41,1467</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>21,3618;31,715;41,326</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>61399</v>
+        <v>92099.73775799999</v>
       </c>
       <c r="O7" t="n">
-        <v>12347</v>
+        <v>18521.61276525</v>
       </c>
       <c r="P7" t="n">
-        <v>5202</v>
+        <v>7788.738378960001</v>
       </c>
       <c r="Q7" t="n">
-        <v>61399</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>12347</v>
+        <v>27764.77951667</v>
       </c>
       <c r="S7" t="n">
-        <v>5202</v>
+        <v>11697.97157298</v>
       </c>
       <c r="T7" t="n">
-        <v>30699</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>6173</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>2601</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>7236</v>
+        <v>10854.483591</v>
       </c>
       <c r="X7" t="n">
-        <v>1431</v>
+        <v>2146.81486425</v>
       </c>
       <c r="Y7" t="n">
-        <v>652</v>
+        <v>977.26975688</v>
       </c>
       <c r="Z7" t="n">
-        <v>7236</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>1431</v>
+        <v>3218.17771079</v>
       </c>
       <c r="AB7" t="n">
-        <v>652</v>
+        <v>1467.76965394</v>
       </c>
       <c r="AC7" t="n">
-        <v>3618</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>715</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1639,87 +1639,87 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>21,70366;31,13787;41,6713</t>
+          <t>21,105549;31,20680;41,10050</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>21,70366;31,13787;41,6713</t>
+          <t>21,0;31,31001;41,15094</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>21,35183;31,6893;41,3356</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>21,8205;31,1586;41,820</t>
+          <t>21,12308;31,2380;41,1227</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>21,8205;31,1586;41,820</t>
+          <t>21,0;31,3568;41,1844</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>21,4102;31,793;41,410</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>70366</v>
+        <v>105549.918789</v>
       </c>
       <c r="O8" t="n">
-        <v>13787</v>
+        <v>20680.54685025</v>
       </c>
       <c r="P8" t="n">
-        <v>6713</v>
+        <v>10050.35938908</v>
       </c>
       <c r="Q8" t="n">
-        <v>70366</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>13787</v>
+        <v>31001.12451647</v>
       </c>
       <c r="S8" t="n">
-        <v>6713</v>
+        <v>15094.71915879</v>
       </c>
       <c r="T8" t="n">
-        <v>35183</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>6893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>3356</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>8205</v>
+        <v>12308.4912405</v>
       </c>
       <c r="X8" t="n">
-        <v>1586</v>
+        <v>2380.19300925</v>
       </c>
       <c r="Y8" t="n">
-        <v>820</v>
+        <v>1227.94317724</v>
       </c>
       <c r="Z8" t="n">
-        <v>8205</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>1586</v>
+        <v>3568.022663390001</v>
       </c>
       <c r="AB8" t="n">
-        <v>820</v>
+        <v>1844.25816887</v>
       </c>
       <c r="AC8" t="n">
-        <v>4102</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>793</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>410</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1746,87 +1746,87 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>21,81896;31,15447;41,8746</t>
+          <t>21,122844;31,23171;41,13094</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>21,81896;31,15447;41,8746</t>
+          <t>21,0;31,34735;41,19666</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>21,40948;31,7723;41,4373</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>21,9447;31,1765;41,1045</t>
+          <t>21,14171;31,2648;41,1564</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>21,9447;31,1765;41,1045</t>
+          <t>21,0;31,3969;41,2349</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>21,4723;31,882;41,522</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>81896</v>
+        <v>122844.550101</v>
       </c>
       <c r="O9" t="n">
-        <v>15447</v>
+        <v>23171.664579</v>
       </c>
       <c r="P9" t="n">
-        <v>8746</v>
+        <v>13094.21284444</v>
       </c>
       <c r="Q9" t="n">
-        <v>81896</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>15447</v>
+        <v>34735.42861652</v>
       </c>
       <c r="S9" t="n">
-        <v>8746</v>
+        <v>19666.30822247</v>
       </c>
       <c r="T9" t="n">
-        <v>40948</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>7723</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>4373</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>9447</v>
+        <v>14171.3181645</v>
       </c>
       <c r="X9" t="n">
-        <v>1765</v>
+        <v>2648.267223</v>
       </c>
       <c r="Y9" t="n">
-        <v>1045</v>
+        <v>1564.51986332</v>
       </c>
       <c r="Z9" t="n">
-        <v>9447</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>1765</v>
+        <v>3969.87867524</v>
       </c>
       <c r="AB9" t="n">
-        <v>1045</v>
+        <v>2349.76551991</v>
       </c>
       <c r="AC9" t="n">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>882</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1853,87 +1853,87 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>21,90539;31,16333;41,10439</t>
+          <t>21,135809;31,24500;41,15629</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>21,90539;31,16333;41,10439</t>
+          <t>21,0;31,36726;41,23473</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>21,45269;31,8166;41,5219</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>21,10378;31,1860;41,1232</t>
+          <t>21,15567;31,2791;41,1844</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>21,10378;31,1860;41,1232</t>
+          <t>21,0;31,4183;41,2770</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>21,5189;31,930;41,616</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>90539</v>
+        <v>135809.1105945</v>
       </c>
       <c r="O10" t="n">
-        <v>16333</v>
+        <v>24500.124201</v>
       </c>
       <c r="P10" t="n">
-        <v>10439</v>
+        <v>15629.15513132</v>
       </c>
       <c r="Q10" t="n">
-        <v>90539</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>16333</v>
+        <v>36726.85284988001</v>
       </c>
       <c r="S10" t="n">
-        <v>10439</v>
+        <v>23473.55932891</v>
       </c>
       <c r="T10" t="n">
-        <v>45269</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>8166</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>5219</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>10378</v>
+        <v>15567.73239525</v>
       </c>
       <c r="X10" t="n">
-        <v>1860</v>
+        <v>2791.103637</v>
       </c>
       <c r="Y10" t="n">
-        <v>1232</v>
+        <v>1844.81708396</v>
       </c>
       <c r="Z10" t="n">
-        <v>10378</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1860</v>
+        <v>4183.99726156</v>
       </c>
       <c r="AB10" t="n">
-        <v>1232</v>
+        <v>2770.74626923</v>
       </c>
       <c r="AC10" t="n">
-        <v>5189</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>930</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1960,87 +1960,87 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>21,101082;31,17384;41,12517</t>
+          <t>21,151623;31,26076;41,18741</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>21,101082;31,17384;41,12517</t>
+          <t>21,0;31,39090;41,28147</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>21,50541;31,8692;41,6258</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>21,11512;31,1973;41,1461</t>
+          <t>21,17268;31,2960;41,2188</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>21,11512;31,1973;41,1461</t>
+          <t>21,0;31,4437;41,3287</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>21,5756;31,986;41,730</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>101082</v>
+        <v>151623.732351</v>
       </c>
       <c r="O11" t="n">
-        <v>17384</v>
+        <v>26076.75953925</v>
       </c>
       <c r="P11" t="n">
-        <v>12517</v>
+        <v>18741.26820124</v>
       </c>
       <c r="Q11" t="n">
-        <v>101082</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>17384</v>
+        <v>39090.30429979</v>
       </c>
       <c r="S11" t="n">
-        <v>12517</v>
+        <v>28147.66808087</v>
       </c>
       <c r="T11" t="n">
-        <v>50541</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>8692</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6258</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>11512</v>
+        <v>17268.8732895</v>
       </c>
       <c r="X11" t="n">
-        <v>1973</v>
+        <v>2960.35230225</v>
       </c>
       <c r="Y11" t="n">
-        <v>1461</v>
+        <v>2188.64033372</v>
       </c>
       <c r="Z11" t="n">
-        <v>11512</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>1973</v>
+        <v>4437.70907023</v>
       </c>
       <c r="AB11" t="n">
-        <v>1461</v>
+        <v>3287.13729511</v>
       </c>
       <c r="AC11" t="n">
-        <v>5756</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>986</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>730</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2067,87 +2067,87 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>21,120498;31,19598;41,16217</t>
+          <t>21,180747;31,29397;41,24279</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>21,120498;31,19598;41,16217</t>
+          <t>21,0;31,44067;41,36465</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>21,60249;31,9799;41,8108</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>21,13598;31,2211;41,1870</t>
+          <t>21,20397;31,3316;41,2799</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>21,13598;31,2211;41,1870</t>
+          <t>21,0;31,4971;41,4205</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>21,6799;31,1105;41,935</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>120498</v>
+        <v>180747.9903285</v>
       </c>
       <c r="O12" t="n">
-        <v>19598</v>
+        <v>29397.09484425</v>
       </c>
       <c r="P12" t="n">
-        <v>16217</v>
+        <v>24279.20937696</v>
       </c>
       <c r="Q12" t="n">
-        <v>120498</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>19598</v>
+        <v>44067.64503319001</v>
       </c>
       <c r="S12" t="n">
-        <v>16217</v>
+        <v>36465.14843448</v>
       </c>
       <c r="T12" t="n">
-        <v>60249</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>9799</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>8108</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>13598</v>
+        <v>20397.61758825</v>
       </c>
       <c r="X12" t="n">
-        <v>2211</v>
+        <v>3316.62958725</v>
       </c>
       <c r="Y12" t="n">
-        <v>1870</v>
+        <v>2799.77765088</v>
       </c>
       <c r="Z12" t="n">
-        <v>13598</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>2211</v>
+        <v>4971.785686030001</v>
       </c>
       <c r="AB12" t="n">
-        <v>1870</v>
+        <v>4205.00956344</v>
       </c>
       <c r="AC12" t="n">
-        <v>6799</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>1105</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2174,87 +2174,87 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>21,123506;31,20042;41,16741</t>
+          <t>21,185259;31,30063;41,25064</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>21,123506;31,20042;41,16741</t>
+          <t>21,0;31,45067;41,37643</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>21,61753;31,10021;41,8370</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>21,13931;31,2260;41,1929</t>
+          <t>21,20897;31,3390;41,2888</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>21,13931;31,2260;41,1929</t>
+          <t>21,0;31,5082;41,4337</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>21,6965;31,1130;41,964</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>123506</v>
+        <v>185259.6564</v>
       </c>
       <c r="O13" t="n">
-        <v>20042</v>
+        <v>30063.81840525</v>
       </c>
       <c r="P13" t="n">
-        <v>16741</v>
+        <v>25064.0618222</v>
       </c>
       <c r="Q13" t="n">
-        <v>123506</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>20042</v>
+        <v>45067.09539987</v>
       </c>
       <c r="S13" t="n">
-        <v>16741</v>
+        <v>37643.92491235</v>
       </c>
       <c r="T13" t="n">
-        <v>61753</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>10021</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>8370</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>13931</v>
+        <v>20897.2428</v>
       </c>
       <c r="X13" t="n">
-        <v>2260</v>
+        <v>3390.54154425</v>
       </c>
       <c r="Y13" t="n">
-        <v>1929</v>
+        <v>2888.3009166</v>
       </c>
       <c r="Z13" t="n">
-        <v>13931</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>2260</v>
+        <v>5082.583229190001</v>
       </c>
       <c r="AB13" t="n">
-        <v>1929</v>
+        <v>4337.963399550001</v>
       </c>
       <c r="AC13" t="n">
-        <v>6965</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>1130</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2281,87 +2281,87 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>21,126514;31,20486;41,17265</t>
+          <t>21,189771;31,30729;41,25849</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>21,126514;31,20486;41,17265</t>
+          <t>21,0;31,46064;41,38823</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>21,63257;31,10243;41,8632</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>21,14264;31,2309;41,1988</t>
+          <t>21,21396;31,3464;41,2976</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>21,14264;31,2309;41,1988</t>
+          <t>21,0;31,5193;41,4470</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>21,7132;31,1154;41,994</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>126514</v>
+        <v>189771.2699715</v>
       </c>
       <c r="O14" t="n">
-        <v>20486</v>
+        <v>30729.278853</v>
       </c>
       <c r="P14" t="n">
-        <v>17265</v>
+        <v>25849.31264892</v>
       </c>
       <c r="Q14" t="n">
-        <v>126514</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>20486</v>
+        <v>46064.65229964</v>
       </c>
       <c r="S14" t="n">
-        <v>17265</v>
+        <v>38823.29972271</v>
       </c>
       <c r="T14" t="n">
-        <v>63257</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>10243</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>8632</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>14264</v>
+        <v>21396.81551175</v>
       </c>
       <c r="X14" t="n">
-        <v>2309</v>
+        <v>3464.272161</v>
       </c>
       <c r="Y14" t="n">
-        <v>1988</v>
+        <v>2976.86783676</v>
       </c>
       <c r="Z14" t="n">
-        <v>14264</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>2309</v>
+        <v>5193.108934680001</v>
       </c>
       <c r="AB14" t="n">
-        <v>1988</v>
+        <v>4470.98280063</v>
       </c>
       <c r="AC14" t="n">
-        <v>7132</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>1154</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2388,87 +2388,87 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>21,129521;31,20930;41,17789</t>
+          <t>21,194282;31,31395;41,26634</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>21,129521;31,20930;41,17789</t>
+          <t>21,0;31,47064;41,40002</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>21,64760;31,10465;41,8894</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>21,14597;31,2358;41,2047</t>
+          <t>21,21896;31,3538;41,3065</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>21,14597;31,2358;41,2047</t>
+          <t>21,0;31,5303;41,4603</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>21,7298;31,1179;41,1023</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>129521</v>
+        <v>194282.936043</v>
       </c>
       <c r="O15" t="n">
-        <v>20930</v>
+        <v>31395.949914</v>
       </c>
       <c r="P15" t="n">
-        <v>17789</v>
+        <v>26634.16509416</v>
       </c>
       <c r="Q15" t="n">
-        <v>129521</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20930</v>
+        <v>47064.02396632</v>
       </c>
       <c r="S15" t="n">
-        <v>17789</v>
+        <v>40002.07620058001</v>
       </c>
       <c r="T15" t="n">
-        <v>64760</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>10465</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>8894</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>14597</v>
+        <v>21896.4407235</v>
       </c>
       <c r="X15" t="n">
-        <v>2358</v>
+        <v>3538.131618</v>
       </c>
       <c r="Y15" t="n">
-        <v>2047</v>
+        <v>3065.39110248</v>
       </c>
       <c r="Z15" t="n">
-        <v>14597</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>2358</v>
+        <v>5303.827777840001</v>
       </c>
       <c r="AB15" t="n">
-        <v>2047</v>
+        <v>4603.93663674</v>
       </c>
       <c r="AC15" t="n">
-        <v>7298</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>1179</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>1023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2495,87 +2495,87 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>21,132529;31,21375;41,18314</t>
+          <t>21,198794;31,32062;41,27419</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>21,132529;31,21375;41,18314</t>
+          <t>21,0;31,48063;41,41180</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>21,66264;31,10687;41,9157</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>21,14930;31,2408;41,2106</t>
+          <t>21,22396;31,3612;41,3153</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>21,14930;31,2408;41,2106</t>
+          <t>21,0;31,5414;41,4736</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>21,7465;31,1204;41,1053</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>132529</v>
+        <v>198794.5496145</v>
       </c>
       <c r="O16" t="n">
-        <v>21375</v>
+        <v>32062.673475</v>
       </c>
       <c r="P16" t="n">
-        <v>18314</v>
+        <v>27419.0175394</v>
       </c>
       <c r="Q16" t="n">
-        <v>132529</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21375</v>
+        <v>48063.474333</v>
       </c>
       <c r="S16" t="n">
-        <v>18314</v>
+        <v>41180.85267845</v>
       </c>
       <c r="T16" t="n">
-        <v>66264</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>10687</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>9157</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>14930</v>
+        <v>22396.01343525</v>
       </c>
       <c r="X16" t="n">
-        <v>2408</v>
+        <v>3612.043575</v>
       </c>
       <c r="Y16" t="n">
-        <v>2106</v>
+        <v>3153.9143682</v>
       </c>
       <c r="Z16" t="n">
-        <v>14930</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>2408</v>
+        <v>5414.625321</v>
       </c>
       <c r="AB16" t="n">
-        <v>2106</v>
+        <v>4736.89047285</v>
       </c>
       <c r="AC16" t="n">
-        <v>7465</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>1204</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>1053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2602,87 +2602,87 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>21,135533;31,21819;41,18838</t>
+          <t>21,203299;31,32729;41,28203</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>21,135533;31,21819;41,18838</t>
+          <t>21,0;31,49062;41,42359</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>21,67766;31,10909;41,9419</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>21,15263;31,2457;41,2165</t>
+          <t>21,22894;31,3685;41,3242</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>21,15263;31,2457;41,2165</t>
+          <t>21,0;31,5525;41,4869</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>21,7631;31,1228;41,1082</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>135533</v>
+        <v>203299.8289455</v>
       </c>
       <c r="O17" t="n">
-        <v>21819</v>
+        <v>32729.344536</v>
       </c>
       <c r="P17" t="n">
-        <v>18838</v>
+        <v>28203.86998464</v>
       </c>
       <c r="Q17" t="n">
-        <v>135533</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>21819</v>
+        <v>49062.84599968001</v>
       </c>
       <c r="S17" t="n">
-        <v>18838</v>
+        <v>42359.62915632</v>
       </c>
       <c r="T17" t="n">
-        <v>67766</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>10909</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>9419</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>15263</v>
+        <v>22894.95893475</v>
       </c>
       <c r="X17" t="n">
-        <v>2457</v>
+        <v>3685.903032</v>
       </c>
       <c r="Y17" t="n">
-        <v>2165</v>
+        <v>3242.43763392</v>
       </c>
       <c r="Z17" t="n">
-        <v>15263</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>2457</v>
+        <v>5525.34416416</v>
       </c>
       <c r="AB17" t="n">
-        <v>2165</v>
+        <v>4869.84430896</v>
       </c>
       <c r="AC17" t="n">
-        <v>7631</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>1228</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>1082</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5447,141 +5447,141 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7862</v>
+        <v>11384</v>
       </c>
       <c r="C2" t="n">
-        <v>1415</v>
+        <v>1832</v>
       </c>
       <c r="D2" t="n">
-        <v>790</v>
+        <v>1582</v>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G2" t="n">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="H2" t="n">
-        <v>7862</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1415</v>
+        <v>1801</v>
       </c>
       <c r="J2" t="n">
-        <v>790</v>
+        <v>1555</v>
       </c>
       <c r="K2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="N2" t="n">
-        <v>3931</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>707</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>5003</v>
+        <v>5761</v>
       </c>
       <c r="U2" t="n">
-        <v>874</v>
+        <v>1029</v>
       </c>
       <c r="V2" t="n">
-        <v>727</v>
+        <v>633</v>
       </c>
       <c r="W2" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="X2" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="Y2" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="Z2" t="n">
-        <v>5003</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>874</v>
+        <v>1011</v>
       </c>
       <c r="AB2" t="n">
-        <v>727</v>
+        <v>623</v>
       </c>
       <c r="AC2" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="AE2" t="n">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="AF2" t="n">
-        <v>2501</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>437</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>21,7862;31,1415;41,790;22,40;32,40;42,40</t>
+          <t>21,11384;31,1832;41,1582;22,60;32,60;42,59</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>21,7862;31,1415;41,790;22,40;32,40;42,40</t>
+          <t>21,0;31,1801;41,1555;22,0;32,90;42,89</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>21,3931;31,707;41,395;22,20;32,20;42,20</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>21,5003;31,874;41,727;22,35;32,35;42,35</t>
+          <t>21,5761;31,1029;41,633;22,52;32,52;42,52</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>21,5003;31,874;41,727;22,35;32,35;42,35</t>
+          <t>21,0;31,1011;41,623;22,0;32,78;42,78</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>21,2501;31,437;41,363;22,17;32,17;42,17</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -5590,141 +5590,141 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15875</v>
+        <v>22769</v>
       </c>
       <c r="C3" t="n">
-        <v>2715</v>
+        <v>3665</v>
       </c>
       <c r="D3" t="n">
-        <v>1693</v>
+        <v>3164</v>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="F3" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G3" t="n">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="H3" t="n">
-        <v>15875</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2715</v>
+        <v>3603</v>
       </c>
       <c r="J3" t="n">
-        <v>1693</v>
+        <v>3111</v>
       </c>
       <c r="K3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="N3" t="n">
-        <v>7937</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1357</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>846</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>5241</v>
+        <v>6664</v>
       </c>
       <c r="U3" t="n">
-        <v>915</v>
+        <v>1140</v>
       </c>
       <c r="V3" t="n">
-        <v>768</v>
+        <v>787</v>
       </c>
       <c r="W3" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="X3" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="Y3" t="n">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="Z3" t="n">
-        <v>5241</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>915</v>
+        <v>1121</v>
       </c>
       <c r="AB3" t="n">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="AC3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="AE3" t="n">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="AF3" t="n">
-        <v>2620</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>457</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>21,15875;31,2715;41,1693;22,80;32,80;42,80</t>
+          <t>21,22769;31,3665;41,3164;22,120;32,120;42,119</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>21,15875;31,2715;41,1693;22,80;32,80;42,80</t>
+          <t>21,0;31,3603;41,3111;22,0;32,180;42,179</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>21,7937;31,1357;41,846;22,40;32,40;42,40</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>21,5241;31,915;41,768;22,70;32,70;42,70</t>
+          <t>21,6664;31,1140;41,787;22,105;32,105;42,104</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>21,5241;31,915;41,768;22,70;32,70;42,70</t>
+          <t>21,0;31,1121;41,773;22,0;32,157;42,157</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>21,2620;31,457;41,384;22,35;32,35;42,35</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -5733,141 +5733,141 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23832</v>
+        <v>34154</v>
       </c>
       <c r="C4" t="n">
-        <v>3875</v>
+        <v>5498</v>
       </c>
       <c r="D4" t="n">
-        <v>2747</v>
+        <v>4747</v>
       </c>
       <c r="E4" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="F4" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="H4" t="n">
-        <v>23832</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3875</v>
+        <v>5405</v>
       </c>
       <c r="J4" t="n">
-        <v>2747</v>
+        <v>4666</v>
       </c>
       <c r="K4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>120</v>
+        <v>270</v>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>269</v>
       </c>
       <c r="N4" t="n">
-        <v>11916</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1937</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1373</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>5490</v>
+        <v>8202</v>
       </c>
       <c r="U4" t="n">
-        <v>959</v>
+        <v>1333</v>
       </c>
       <c r="V4" t="n">
-        <v>812</v>
+        <v>1054</v>
       </c>
       <c r="W4" t="n">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="X4" t="n">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="Y4" t="n">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="Z4" t="n">
-        <v>5490</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>959</v>
+        <v>1311</v>
       </c>
       <c r="AB4" t="n">
-        <v>812</v>
+        <v>1036</v>
       </c>
       <c r="AC4" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>105</v>
+        <v>236</v>
       </c>
       <c r="AE4" t="n">
-        <v>105</v>
+        <v>236</v>
       </c>
       <c r="AF4" t="n">
-        <v>2745</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>479</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>21,23832;31,3875;41,2747;22,120;32,120;42,120</t>
+          <t>21,34154;31,5498;41,4747;22,180;32,180;42,179</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>21,23832;31,3875;41,2747;22,120;32,120;42,120</t>
+          <t>21,0;31,5405;41,4666;22,0;32,270;42,269</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>21,11916;31,1937;41,1373;22,60;32,60;42,60</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>21,5490;31,959;41,812;22,105;32,105;42,105</t>
+          <t>21,8202;31,1333;41,1054;22,157;32,157;42,157</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>21,5490;31,959;41,812;22,105;32,105;42,105</t>
+          <t>21,0;31,1311;41,1036;22,0;32,236;42,236</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>21,2745;31,479;41,406;22,52;32,52;42,52</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -5876,141 +5876,141 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31721</v>
+        <v>45538</v>
       </c>
       <c r="C5" t="n">
-        <v>5146</v>
+        <v>7330</v>
       </c>
       <c r="D5" t="n">
-        <v>3698</v>
+        <v>6329</v>
       </c>
       <c r="E5" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="F5" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="G5" t="n">
-        <v>160</v>
+        <v>239</v>
       </c>
       <c r="H5" t="n">
-        <v>31721</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5146</v>
+        <v>7207</v>
       </c>
       <c r="J5" t="n">
-        <v>3698</v>
+        <v>6222</v>
       </c>
       <c r="K5" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="M5" t="n">
-        <v>160</v>
+        <v>359</v>
       </c>
       <c r="N5" t="n">
-        <v>15860</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2573</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1849</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>5881</v>
+        <v>8800</v>
       </c>
       <c r="U5" t="n">
-        <v>1026</v>
+        <v>1427</v>
       </c>
       <c r="V5" t="n">
-        <v>883</v>
+        <v>1148</v>
       </c>
       <c r="W5" t="n">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="X5" t="n">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="Y5" t="n">
-        <v>140</v>
+        <v>209</v>
       </c>
       <c r="Z5" t="n">
-        <v>5881</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>1026</v>
+        <v>1403</v>
       </c>
       <c r="AB5" t="n">
-        <v>883</v>
+        <v>1128</v>
       </c>
       <c r="AC5" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>140</v>
+        <v>315</v>
       </c>
       <c r="AE5" t="n">
-        <v>140</v>
+        <v>314</v>
       </c>
       <c r="AF5" t="n">
-        <v>2940</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>513</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>441</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>21,31721;31,5146;41,3698;22,160;32,160;42,160</t>
+          <t>21,45538;31,7330;41,6329;22,240;32,240;42,239</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>21,31721;31,5146;41,3698;22,160;32,160;42,160</t>
+          <t>21,0;31,7207;41,6222;22,0;32,360;42,359</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>21,15860;31,2573;41,1849;22,80;32,80;42,80</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>21,5881;31,1026;41,883;22,140;32,140;42,140</t>
+          <t>21,8800;31,1427;41,1148;22,210;32,210;42,209</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>21,5881;31,1026;41,883;22,140;32,140;42,140</t>
+          <t>21,0;31,1403;41,1128;22,0;32,315;42,314</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>21,2940;31,513;41,441;22,70;32,70;42,70</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6019,141 +6019,141 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>39588</v>
+        <v>56923</v>
       </c>
       <c r="C6" t="n">
-        <v>6408</v>
+        <v>9163</v>
       </c>
       <c r="D6" t="n">
-        <v>4666</v>
+        <v>7911</v>
       </c>
       <c r="E6" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F6" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G6" t="n">
-        <v>200</v>
+        <v>299</v>
       </c>
       <c r="H6" t="n">
-        <v>39588</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>6408</v>
+        <v>9009</v>
       </c>
       <c r="J6" t="n">
-        <v>4666</v>
+        <v>7778</v>
       </c>
       <c r="K6" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>449</v>
       </c>
       <c r="N6" t="n">
-        <v>19794</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>3204</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2333</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>6161</v>
+        <v>9437</v>
       </c>
       <c r="U6" t="n">
-        <v>1075</v>
+        <v>1527</v>
       </c>
       <c r="V6" t="n">
-        <v>932</v>
+        <v>1249</v>
       </c>
       <c r="W6" t="n">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="X6" t="n">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="Y6" t="n">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="Z6" t="n">
-        <v>6161</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>1075</v>
+        <v>1502</v>
       </c>
       <c r="AB6" t="n">
-        <v>932</v>
+        <v>1227</v>
       </c>
       <c r="AC6" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>175</v>
+        <v>393</v>
       </c>
       <c r="AE6" t="n">
-        <v>175</v>
+        <v>393</v>
       </c>
       <c r="AF6" t="n">
-        <v>3080</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>537</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>21,39588;31,6408;41,4666;22,200;32,200;42,200</t>
+          <t>21,56923;31,9163;41,7911;22,300;32,300;42,299</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>21,39588;31,6408;41,4666;22,200;32,200;42,200</t>
+          <t>21,0;31,9009;41,7778;22,0;32,450;42,449</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>21,19794;31,3204;41,2333;22,100;32,100;42,100</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>21,6161;31,1075;41,932;22,175;32,175;42,175</t>
+          <t>21,9437;31,1527;41,1249;22,262;32,262;42,262</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>21,6161;31,1075;41,932;22,175;32,175;42,175</t>
+          <t>21,0;31,1502;41,1227;22,0;32,393;42,393</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>21,3080;31,537;41,466;22,87;32,87;42,87</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6162,141 +6162,141 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>46183</v>
+        <v>68308</v>
       </c>
       <c r="C7" t="n">
-        <v>7462</v>
+        <v>10996</v>
       </c>
       <c r="D7" t="n">
-        <v>6051</v>
+        <v>9494</v>
       </c>
       <c r="E7" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="F7" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="G7" t="n">
-        <v>240</v>
+        <v>359</v>
       </c>
       <c r="H7" t="n">
-        <v>46183</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>7462</v>
+        <v>10810</v>
       </c>
       <c r="J7" t="n">
-        <v>6051</v>
+        <v>9333</v>
       </c>
       <c r="K7" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>240</v>
+        <v>540</v>
       </c>
       <c r="M7" t="n">
-        <v>240</v>
+        <v>539</v>
       </c>
       <c r="N7" t="n">
-        <v>23091</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>3731</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>3025</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>6454</v>
+        <v>10116</v>
       </c>
       <c r="U7" t="n">
-        <v>1126</v>
+        <v>1634</v>
       </c>
       <c r="V7" t="n">
-        <v>984</v>
+        <v>1357</v>
       </c>
       <c r="W7" t="n">
-        <v>210</v>
+        <v>315</v>
       </c>
       <c r="X7" t="n">
-        <v>210</v>
+        <v>315</v>
       </c>
       <c r="Y7" t="n">
-        <v>210</v>
+        <v>314</v>
       </c>
       <c r="Z7" t="n">
-        <v>6454</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>1126</v>
+        <v>1607</v>
       </c>
       <c r="AB7" t="n">
-        <v>984</v>
+        <v>1334</v>
       </c>
       <c r="AC7" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>210</v>
+        <v>472</v>
       </c>
       <c r="AE7" t="n">
-        <v>210</v>
+        <v>472</v>
       </c>
       <c r="AF7" t="n">
-        <v>3227</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>563</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>492</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>21,46183;31,7462;41,6051;22,240;32,240;42,240</t>
+          <t>21,68308;31,10996;41,9494;22,360;32,360;42,359</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>21,46183;31,7462;41,6051;22,240;32,240;42,240</t>
+          <t>21,0;31,10810;41,9333;22,0;32,540;42,539</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>21,23091;31,3731;41,3025;22,120;32,120;42,120</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>21,6454;31,1126;41,984;22,210;32,210;42,210</t>
+          <t>21,10116;31,1634;41,1357;22,315;32,315;42,314</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>21,6454;31,1126;41,984;22,210;32,210;42,210</t>
+          <t>21,0;31,1607;41,1334;22,0;32,472;42,472</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>21,3227;31,563;41,492;22,105;32,105;42,105</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6305,141 +6305,141 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>52769</v>
+        <v>79692</v>
       </c>
       <c r="C8" t="n">
-        <v>8510</v>
+        <v>12828</v>
       </c>
       <c r="D8" t="n">
-        <v>7445</v>
+        <v>11076</v>
       </c>
       <c r="E8" t="n">
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="F8" t="n">
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="G8" t="n">
-        <v>280</v>
+        <v>419</v>
       </c>
       <c r="H8" t="n">
-        <v>52769</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>8510</v>
+        <v>12612</v>
       </c>
       <c r="J8" t="n">
-        <v>7445</v>
+        <v>10889</v>
       </c>
       <c r="K8" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>280</v>
+        <v>630</v>
       </c>
       <c r="M8" t="n">
-        <v>280</v>
+        <v>629</v>
       </c>
       <c r="N8" t="n">
-        <v>26384</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>4255</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>3722</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>6762</v>
+        <v>10838</v>
       </c>
       <c r="U8" t="n">
-        <v>1179</v>
+        <v>1748</v>
       </c>
       <c r="V8" t="n">
-        <v>1038</v>
+        <v>1473</v>
       </c>
       <c r="W8" t="n">
-        <v>245</v>
+        <v>367</v>
       </c>
       <c r="X8" t="n">
-        <v>245</v>
+        <v>367</v>
       </c>
       <c r="Y8" t="n">
-        <v>245</v>
+        <v>367</v>
       </c>
       <c r="Z8" t="n">
-        <v>6762</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>1179</v>
+        <v>1718</v>
       </c>
       <c r="AB8" t="n">
-        <v>1038</v>
+        <v>1448</v>
       </c>
       <c r="AC8" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>245</v>
+        <v>551</v>
       </c>
       <c r="AE8" t="n">
-        <v>245</v>
+        <v>551</v>
       </c>
       <c r="AF8" t="n">
-        <v>3381</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>519</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>21,52769;31,8510;41,7445;22,280;32,280;42,280</t>
+          <t>21,79692;31,12828;41,11076;22,420;32,420;42,419</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>21,52769;31,8510;41,7445;22,280;32,280;42,280</t>
+          <t>21,0;31,12612;41,10889;22,0;32,630;42,629</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>21,26384;31,4255;41,3722;22,140;32,140;42,140</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>21,6762;31,1179;41,1038;22,245;32,245;42,245</t>
+          <t>21,10838;31,1748;41,1473;22,367;32,367;42,367</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>21,6762;31,1179;41,1038;22,245;32,245;42,245</t>
+          <t>21,0;31,1718;41,1448;22,0;32,551;42,551</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>21,3381;31,589;41,519;22,122;32,122;42,122</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6448,141 +6448,141 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>59863</v>
+        <v>91077</v>
       </c>
       <c r="C9" t="n">
-        <v>9637</v>
+        <v>14661</v>
       </c>
       <c r="D9" t="n">
-        <v>8679</v>
+        <v>12658</v>
       </c>
       <c r="E9" t="n">
-        <v>315</v>
+        <v>472</v>
       </c>
       <c r="F9" t="n">
-        <v>315</v>
+        <v>472</v>
       </c>
       <c r="G9" t="n">
-        <v>315</v>
+        <v>472</v>
       </c>
       <c r="H9" t="n">
-        <v>59863</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>9637</v>
+        <v>14414</v>
       </c>
       <c r="J9" t="n">
-        <v>8679</v>
+        <v>12444</v>
       </c>
       <c r="K9" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>315</v>
+        <v>708</v>
       </c>
       <c r="M9" t="n">
-        <v>315</v>
+        <v>708</v>
       </c>
       <c r="N9" t="n">
-        <v>29931</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>4818</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>4339</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>7353</v>
+        <v>12048</v>
       </c>
       <c r="U9" t="n">
-        <v>1283</v>
+        <v>1939</v>
       </c>
       <c r="V9" t="n">
-        <v>1144</v>
+        <v>1669</v>
       </c>
       <c r="W9" t="n">
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="X9" t="n">
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="Y9" t="n">
-        <v>280</v>
+        <v>419</v>
       </c>
       <c r="Z9" t="n">
-        <v>7353</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>1283</v>
+        <v>1906</v>
       </c>
       <c r="AB9" t="n">
-        <v>1144</v>
+        <v>1640</v>
       </c>
       <c r="AC9" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>280</v>
+        <v>630</v>
       </c>
       <c r="AE9" t="n">
-        <v>280</v>
+        <v>629</v>
       </c>
       <c r="AF9" t="n">
-        <v>3676</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>641</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>572</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>21,59863;31,9637;41,8679;22,315;32,315;42,315</t>
+          <t>21,91077;31,14661;41,12658;22,472;32,472;42,472</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>21,59863;31,9637;41,8679;22,315;32,315;42,315</t>
+          <t>21,0;31,14414;41,12444;22,0;32,708;42,708</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>21,29931;31,4818;41,4339;22,157;32,157;42,157</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>21,7353;31,1283;41,1144;22,280;32,280;42,280</t>
+          <t>21,12048;31,1939;41,1669;22,420;32,420;42,419</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>21,7353;31,1283;41,1144;22,280;32,280;42,280</t>
+          <t>21,0;31,1906;41,1640;22,0;32,630;42,629</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>21,3676;31,641;41,572;22,140;32,140;42,140</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6591,141 +6591,141 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>67946</v>
+        <v>102462</v>
       </c>
       <c r="C10" t="n">
-        <v>10938</v>
+        <v>16494</v>
       </c>
       <c r="D10" t="n">
-        <v>9559</v>
+        <v>14241</v>
       </c>
       <c r="E10" t="n">
-        <v>335</v>
+        <v>502</v>
       </c>
       <c r="F10" t="n">
-        <v>335</v>
+        <v>502</v>
       </c>
       <c r="G10" t="n">
-        <v>335</v>
+        <v>502</v>
       </c>
       <c r="H10" t="n">
-        <v>67946</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>10938</v>
+        <v>16216</v>
       </c>
       <c r="J10" t="n">
-        <v>9559</v>
+        <v>14000</v>
       </c>
       <c r="K10" t="n">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>335</v>
+        <v>753</v>
       </c>
       <c r="M10" t="n">
-        <v>335</v>
+        <v>753</v>
       </c>
       <c r="N10" t="n">
-        <v>33973</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5469</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>4779</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>7961</v>
+        <v>13045</v>
       </c>
       <c r="U10" t="n">
-        <v>1389</v>
+        <v>2100</v>
       </c>
       <c r="V10" t="n">
-        <v>1254</v>
+        <v>1829</v>
       </c>
       <c r="W10" t="n">
-        <v>315</v>
+        <v>472</v>
       </c>
       <c r="X10" t="n">
-        <v>315</v>
+        <v>472</v>
       </c>
       <c r="Y10" t="n">
-        <v>315</v>
+        <v>472</v>
       </c>
       <c r="Z10" t="n">
-        <v>7961</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1389</v>
+        <v>2064</v>
       </c>
       <c r="AB10" t="n">
-        <v>1254</v>
+        <v>1798</v>
       </c>
       <c r="AC10" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>315</v>
+        <v>708</v>
       </c>
       <c r="AE10" t="n">
-        <v>315</v>
+        <v>708</v>
       </c>
       <c r="AF10" t="n">
-        <v>3980</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>694</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>627</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>21,67946;31,10938;41,9559;22,335;32,335;42,335</t>
+          <t>21,102462;31,16494;41,14241;22,502;32,502;42,502</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>21,67946;31,10938;41,9559;22,335;32,335;42,335</t>
+          <t>21,0;31,16216;41,14000;22,0;32,753;42,753</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>21,33973;31,5469;41,4779;22,167;32,167;42,167</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>21,7961;31,1389;41,1254;22,315;32,315;42,315</t>
+          <t>21,13045;31,2100;41,1829;22,472;32,472;42,472</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>21,7961;31,1389;41,1254;22,315;32,315;42,315</t>
+          <t>21,0;31,2064;41,1798;22,0;32,708;42,708</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>21,3980;31,694;41,627;22,157;32,157;42,157</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6734,141 +6734,141 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>75898</v>
+        <v>113847</v>
       </c>
       <c r="C11" t="n">
-        <v>12218</v>
+        <v>18327</v>
       </c>
       <c r="D11" t="n">
-        <v>10549</v>
+        <v>15823</v>
       </c>
       <c r="E11" t="n">
-        <v>350</v>
+        <v>525</v>
       </c>
       <c r="F11" t="n">
-        <v>350</v>
+        <v>525</v>
       </c>
       <c r="G11" t="n">
-        <v>350</v>
+        <v>524</v>
       </c>
       <c r="H11" t="n">
-        <v>75898</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>12218</v>
+        <v>18018</v>
       </c>
       <c r="J11" t="n">
-        <v>10549</v>
+        <v>15556</v>
       </c>
       <c r="K11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>350</v>
+        <v>787</v>
       </c>
       <c r="M11" t="n">
-        <v>350</v>
+        <v>787</v>
       </c>
       <c r="N11" t="n">
-        <v>37949</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>6109</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>5274</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8582</v>
+        <v>14064</v>
       </c>
       <c r="U11" t="n">
-        <v>1497</v>
+        <v>2264</v>
       </c>
       <c r="V11" t="n">
-        <v>1368</v>
+        <v>1995</v>
       </c>
       <c r="W11" t="n">
-        <v>350</v>
+        <v>525</v>
       </c>
       <c r="X11" t="n">
-        <v>350</v>
+        <v>525</v>
       </c>
       <c r="Y11" t="n">
-        <v>350</v>
+        <v>524</v>
       </c>
       <c r="Z11" t="n">
-        <v>8582</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>1497</v>
+        <v>2225</v>
       </c>
       <c r="AB11" t="n">
-        <v>1368</v>
+        <v>1961</v>
       </c>
       <c r="AC11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>350</v>
+        <v>787</v>
       </c>
       <c r="AE11" t="n">
-        <v>350</v>
+        <v>787</v>
       </c>
       <c r="AF11" t="n">
-        <v>4291</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>748</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>684</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>21,75898;31,12218;41,10549;22,350;32,350;42,350</t>
+          <t>21,113847;31,18327;41,15823;22,525;32,525;42,524</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>21,75898;31,12218;41,10549;22,350;32,350;42,350</t>
+          <t>21,0;31,18018;41,15556;22,0;32,787;42,787</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>21,37949;31,6109;41,5274;22,175;32,175;42,175</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>21,8582;31,1497;41,1368;22,350;32,350;42,350</t>
+          <t>21,14064;31,2264;41,1995;22,525;32,525;42,524</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>21,8582;31,1497;41,1368;22,350;32,350;42,350</t>
+          <t>21,0;31,2225;41,1961;22,0;32,787;42,787</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>21,4291;31,748;41,684;22,175;32,175;42,175</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6883,7 +6883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7079,40 +7079,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -7152,7 +7172,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>60</v>
@@ -7179,13 +7199,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5230324.236800999</v>
+        <v>6476841.281282499</v>
       </c>
       <c r="U2" t="n">
-        <v>871365.579792</v>
+        <v>1072041.21124</v>
       </c>
       <c r="V2" t="n">
-        <v>758187.2716079999</v>
+        <v>931391.4850806399</v>
       </c>
       <c r="W2" t="n">
         <v>3380</v>
@@ -7224,33 +7244,49 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>21,0;31,67080;41,57915</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>11269664.00356</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>1747982.5455518</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2006045.6</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>0</v>
-      </c>
       <c r="AS2" t="n">
-        <v>15619003.0491118</v>
+        <v>2907552.7202848</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1803005.9</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>922590.10865558</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>19246106.17805218</v>
       </c>
     </row>
     <row r="3">
@@ -7287,7 +7323,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>60</v>
@@ -7314,13 +7350,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>654521.0965645</v>
+        <v>796142.61197125</v>
       </c>
       <c r="U3" t="n">
-        <v>128019.866704</v>
+        <v>150819.38388</v>
       </c>
       <c r="V3" t="n">
-        <v>101536.760824</v>
+        <v>121624.48492192</v>
       </c>
       <c r="W3" t="n">
         <v>3380</v>
@@ -7359,33 +7395,49 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>21,0;31,7750;41,6830</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1277154.26542</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>199143.5361401</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>479008.6</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0</v>
-      </c>
       <c r="AS3" t="n">
-        <v>2138374.0515601</v>
+        <v>581114.9412336</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>204207.7</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>108128.55625059</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2552816.64904429</v>
       </c>
     </row>
     <row r="4">
@@ -7422,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>60</v>
@@ -7449,13 +7501,13 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7581.044</v>
+        <v>8070.044</v>
       </c>
       <c r="U4" t="n">
-        <v>1562.6209</v>
+        <v>1640.6209</v>
       </c>
       <c r="V4" t="n">
-        <v>567.1744</v>
+        <v>635.1744</v>
       </c>
       <c r="W4" t="n">
         <v>600</v>
@@ -7494,25 +7546,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>18901.53101</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4456.85</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -7520,7 +7568,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>23358.38101</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1418.2</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>24776.58101</v>
       </c>
     </row>
     <row r="5">
@@ -7557,7 +7617,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>60</v>
@@ -7584,13 +7644,13 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>20336.9806</v>
+        <v>34723.9806</v>
       </c>
       <c r="U5" t="n">
-        <v>3896.3602</v>
+        <v>6212.3602</v>
       </c>
       <c r="V5" t="n">
-        <v>1729.227</v>
+        <v>3728.227</v>
       </c>
       <c r="W5" t="n">
         <v>777</v>
@@ -7629,25 +7689,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>48106.17123</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11828.8</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -7655,7 +7711,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>59934.97123</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>41861.65</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>101796.62123</v>
       </c>
     </row>
     <row r="6">
@@ -7692,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>60</v>
@@ -7719,13 +7787,13 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>56984.9052</v>
+        <v>118663.9052</v>
       </c>
       <c r="U6" t="n">
-        <v>10068.7</v>
+        <v>19997.7</v>
       </c>
       <c r="V6" t="n">
-        <v>5588.002</v>
+        <v>14161.002</v>
       </c>
       <c r="W6" t="n">
         <v>1300</v>
@@ -7764,33 +7832,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>115325.6467</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32682</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9356.799999999999</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>163524.9467</v>
+      <c r="AT6" t="n">
+        <v>179483.85</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>343008.7967</v>
       </c>
     </row>
     <row r="7">
@@ -7827,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>60</v>
@@ -7854,13 +7930,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>56984.9052</v>
+        <v>130292.6866312</v>
       </c>
       <c r="U7" t="n">
-        <v>10068.7</v>
+        <v>21873.2402</v>
       </c>
       <c r="V7" t="n">
-        <v>5588.002</v>
+        <v>15767.2510118</v>
       </c>
       <c r="W7" t="n">
         <v>1300</v>
@@ -7899,33 +7975,49 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>21,0;31,1866;41,1591</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>115325.6467</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32682</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9538.799999999999</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>163706.9467</v>
+      <c r="AT7" t="n">
+        <v>179483.85</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>33805.94062905</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>376996.73732905</v>
       </c>
     </row>
     <row r="8">
@@ -7962,7 +8054,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>60</v>
@@ -7989,13 +8081,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>57188.889726</v>
+        <v>142126.4525884</v>
       </c>
       <c r="U8" t="n">
-        <v>10104.9835</v>
+        <v>23786.0639</v>
       </c>
       <c r="V8" t="n">
-        <v>5608.55201</v>
+        <v>17394.4610338</v>
       </c>
       <c r="W8" t="n">
         <v>1300</v>
@@ -8034,33 +8126,49 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>21,0;31,3733;41,3184</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>115325.6467</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32682</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>572.5032335</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9538.799999999999</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>164279.4499335</v>
+      <c r="AT8" t="n">
+        <v>179483.85</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>67622.14450924999</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>411385.44444275</v>
       </c>
     </row>
     <row r="9">
@@ -8097,7 +8205,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>60</v>
@@ -8124,31 +8232,31 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>243586.4734</v>
+        <v>426772.668134</v>
       </c>
       <c r="U9" t="n">
-        <v>40406.464</v>
+        <v>68920.77864</v>
       </c>
       <c r="V9" t="n">
-        <v>27211.5064</v>
+        <v>51572.491464</v>
       </c>
       <c r="W9" t="n">
-        <v>3380</v>
+        <v>3390</v>
       </c>
       <c r="X9" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>1650</v>
+        <v>1660</v>
       </c>
       <c r="AA9" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AB9" t="n">
-        <v>930</v>
+        <v>970</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -8169,33 +8277,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>523362.9868</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>691676.2368</v>
+        <v>44110.379868</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>420557.65</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.60000000005</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1211806.866668</v>
       </c>
     </row>
     <row r="10">
@@ -8232,7 +8348,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>60</v>
@@ -8259,31 +8375,31 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>244522.570767</v>
+        <v>497736.9318235452</v>
       </c>
       <c r="U10" t="n">
-        <v>40558.62132</v>
+        <v>80368.243634784</v>
       </c>
       <c r="V10" t="n">
-        <v>27320.498932</v>
+        <v>59850.35289706767</v>
       </c>
       <c r="W10" t="n">
-        <v>3380</v>
+        <v>3390</v>
       </c>
       <c r="X10" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>1650</v>
+        <v>1660</v>
       </c>
       <c r="AA10" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AB10" t="n">
-        <v>930</v>
+        <v>970</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -8304,33 +8420,53 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>21,0;31,2074;41,1749</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>523362.9868</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>2612.689934</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>0</v>
-      </c>
       <c r="AS10" t="n">
-        <v>694288.926734</v>
+        <v>44110.379868</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>420557.65</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>36243.99377962</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>253040.391680074</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1409356.342061694</v>
       </c>
     </row>
     <row r="11">
@@ -8367,7 +8503,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>60</v>
@@ -8394,31 +8530,31 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>253883.544437</v>
+        <v>622373.971193714</v>
       </c>
       <c r="U11" t="n">
-        <v>42080.19452</v>
+        <v>99006.84539088</v>
       </c>
       <c r="V11" t="n">
-        <v>28410.424252</v>
+        <v>75061.39998119247</v>
       </c>
       <c r="W11" t="n">
-        <v>3380</v>
+        <v>3390</v>
       </c>
       <c r="X11" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>1650</v>
+        <v>1660</v>
       </c>
       <c r="AA11" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AB11" t="n">
-        <v>1180</v>
+        <v>1220</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8439,33 +8575,53 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>21,0;31,10378;41,8756</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>523362.9868</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>29177.089274</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>0</v>
-      </c>
       <c r="AS11" t="n">
-        <v>720853.326074</v>
+        <v>44110.379868</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>420557.65</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>181299.55546282</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>422564.8428778228</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1750500.754282643</v>
       </c>
     </row>
     <row r="12">
@@ -8502,7 +8658,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>60</v>
@@ -8529,31 +8685,31 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>263244.518107</v>
+        <v>714400.1292809029</v>
       </c>
       <c r="U12" t="n">
-        <v>43601.76772</v>
+        <v>109908.63483188</v>
       </c>
       <c r="V12" t="n">
-        <v>29500.349572</v>
+        <v>87086.30659640912</v>
       </c>
       <c r="W12" t="n">
-        <v>3380</v>
+        <v>3400</v>
       </c>
       <c r="X12" t="n">
-        <v>1440</v>
+        <v>1460</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>1650</v>
+        <v>1670</v>
       </c>
       <c r="AA12" t="n">
-        <v>2160</v>
+        <v>2180</v>
       </c>
       <c r="AB12" t="n">
-        <v>1430</v>
+        <v>1510</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8574,33 +8730,53 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>21,0;31,10378;41,8756</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>523362.9868</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>55741.488614</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>0</v>
-      </c>
       <c r="AS12" t="n">
-        <v>747417.725414</v>
+        <v>44110.379868</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>420557.65</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>181299.55546282</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>632949.6618054074</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1987449.972550227</v>
       </c>
     </row>
     <row r="13">
@@ -8637,7 +8813,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>60</v>
@@ -8664,31 +8840,31 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>272605.491777</v>
+        <v>882450.0027506544</v>
       </c>
       <c r="U13" t="n">
-        <v>45123.34092</v>
+        <v>134365.95587582</v>
       </c>
       <c r="V13" t="n">
-        <v>30590.274892</v>
+        <v>107830.8507623971</v>
       </c>
       <c r="W13" t="n">
-        <v>3380</v>
+        <v>3430</v>
       </c>
       <c r="X13" t="n">
-        <v>1440</v>
+        <v>1490</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>1650</v>
+        <v>1700</v>
       </c>
       <c r="AA13" t="n">
-        <v>2160</v>
+        <v>2210</v>
       </c>
       <c r="AB13" t="n">
-        <v>1680</v>
+        <v>1880</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -8709,33 +8885,53 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>21,0;31,20412;41,17271</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>523362.9868</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>82305.88795400001</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>0</v>
-      </c>
       <c r="AS13" t="n">
-        <v>773982.124754</v>
+        <v>44110.379868</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>420557.65</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>358706.26016582</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>885862.5753897758</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2444333.990177596</v>
       </c>
     </row>
     <row r="14">
@@ -8772,7 +8968,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>60</v>
@@ -8799,31 +8995,31 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>272605.491777</v>
+        <v>952828.259707224</v>
       </c>
       <c r="U14" t="n">
-        <v>45123.34092</v>
+        <v>139159.14186752</v>
       </c>
       <c r="V14" t="n">
-        <v>30590.274892</v>
+        <v>109422.6281444966</v>
       </c>
       <c r="W14" t="n">
-        <v>3380</v>
+        <v>3430</v>
       </c>
       <c r="X14" t="n">
-        <v>1440</v>
+        <v>1490</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>1580</v>
+        <v>1630</v>
       </c>
       <c r="AA14" t="n">
-        <v>2160</v>
+        <v>2210</v>
       </c>
       <c r="AB14" t="n">
-        <v>1610</v>
+        <v>1810</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -8844,33 +9040,53 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>21,0;31,10378;41,8756</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>523362.9868</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>82305.88795400001</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>38703</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>0</v>
-      </c>
       <c r="AS14" t="n">
-        <v>773800.124754</v>
+        <v>43928.379868</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>420557.65</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>181299.55546282</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>1175873.240339148</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2556755.950423968</v>
       </c>
     </row>
     <row r="15">
@@ -8907,7 +9123,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>60</v>
@@ -8934,31 +9150,31 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>407079.241321</v>
+        <v>1503423.840058908</v>
       </c>
       <c r="U15" t="n">
-        <v>67783.786668</v>
+        <v>230599.922243112</v>
       </c>
       <c r="V15" t="n">
-        <v>52587.607751</v>
+        <v>184521.3657771345</v>
       </c>
       <c r="W15" t="n">
-        <v>3380</v>
+        <v>3480</v>
       </c>
       <c r="X15" t="n">
-        <v>1440</v>
+        <v>1540</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>1720</v>
+        <v>1820</v>
       </c>
       <c r="AA15" t="n">
-        <v>2160</v>
+        <v>2260</v>
       </c>
       <c r="AB15" t="n">
-        <v>1750</v>
+        <v>2150</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -8979,33 +9195,53 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>21,0;31,13267;41,11306</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>806361.72199</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>126170.69190845</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>111419.8</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>0</v>
-      </c>
       <c r="AS15" t="n">
-        <v>1191479.61389845</v>
+        <v>127530.5344398</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>769495.5</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>227749.171710725</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>1966239.63670593</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4171074.656754904</v>
       </c>
     </row>
     <row r="16">
@@ -9042,7 +9278,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>60</v>
@@ -9069,31 +9305,31 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>407079.241321</v>
+        <v>1545411.647936995</v>
       </c>
       <c r="U16" t="n">
-        <v>67783.786668</v>
+        <v>237116.1139213872</v>
       </c>
       <c r="V16" t="n">
-        <v>52587.607751</v>
+        <v>189768.2635119058</v>
       </c>
       <c r="W16" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X16" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>1790</v>
+        <v>1990</v>
       </c>
       <c r="AA16" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB16" t="n">
-        <v>1820</v>
+        <v>2620</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -9114,33 +9350,53 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>21,0;31,15478;41,13191</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>806361.72199</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>126170.69190845</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>111601.8</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>0</v>
-      </c>
       <c r="AS16" t="n">
-        <v>1191661.61389845</v>
+        <v>127712.5344398</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>769495.5</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>265703.692042665</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>2046604.30880711</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4289575.849188025</v>
       </c>
     </row>
     <row r="17">
@@ -9177,7 +9433,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>60</v>
@@ -9204,31 +9460,31 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1001174.0647095</v>
+        <v>2757415.940502212</v>
       </c>
       <c r="U17" t="n">
-        <v>171478.9378</v>
+        <v>425486.296281984</v>
       </c>
       <c r="V17" t="n">
-        <v>155294.2625</v>
+        <v>370789.556696</v>
       </c>
       <c r="W17" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X17" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>2070</v>
+        <v>2270</v>
       </c>
       <c r="AA17" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB17" t="n">
-        <v>2100</v>
+        <v>2900</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -9249,33 +9505,53 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>21,0;31,21540;41,18966</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>1849136.6839</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>287800.8110045</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>685602</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>0</v>
-      </c>
       <c r="AS17" t="n">
-        <v>3092544.2449045</v>
+        <v>759534.467356</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1229463.4</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>352261.71148008</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>3094733.012109322</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7842934.835849902</v>
       </c>
     </row>
     <row r="18">
@@ -9312,7 +9588,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>60</v>
@@ -9339,31 +9615,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5230324.236800999</v>
+        <v>9700129.821663089</v>
       </c>
       <c r="U18" t="n">
-        <v>871365.579792</v>
+        <v>1467085.67416632</v>
       </c>
       <c r="V18" t="n">
-        <v>758187.2716079999</v>
+        <v>1264457.424320155</v>
       </c>
       <c r="W18" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X18" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>2630</v>
+        <v>2830</v>
       </c>
       <c r="AA18" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB18" t="n">
-        <v>2660</v>
+        <v>3460</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9384,33 +9660,53 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>21,0;31,67080;41,57915</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>11269664.00356</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>1747982.5455518</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2006045.6</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>0</v>
-      </c>
       <c r="AS18" t="n">
-        <v>15619003.0491118</v>
+        <v>2907552.7202848</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1803005.9</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>922590.10865558</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>7866624.48519941</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>27112730.66325159</v>
       </c>
     </row>
     <row r="19">
@@ -9447,7 +9743,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>60</v>
@@ -9474,31 +9770,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>8633471.601270501</v>
+        <v>16504614.7815711</v>
       </c>
       <c r="U19" t="n">
-        <v>1440430.099568</v>
+        <v>2604896.552765696</v>
       </c>
       <c r="V19" t="n">
-        <v>1247737.926856</v>
+        <v>2235536.457614838</v>
       </c>
       <c r="W19" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X19" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>3540</v>
+        <v>3740</v>
       </c>
       <c r="AA19" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB19" t="n">
-        <v>3570</v>
+        <v>4370</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9519,33 +9815,53 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>21,0;31,67080;41,57915</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>18287000.21014</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>2835669.6575717</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3467427.6</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>0</v>
-      </c>
       <c r="AS19" t="n">
-        <v>25765977.8677117</v>
+        <v>6210353.881521</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1803005.9</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>922590.10865558</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>16119680.96905144</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>47354181.12693972</v>
       </c>
     </row>
     <row r="20">
@@ -9582,7 +9898,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>60</v>
@@ -9609,13 +9925,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>218911.2399015</v>
+        <v>232616.97228706</v>
       </c>
       <c r="U20" t="n">
-        <v>39408.492262</v>
+        <v>41733.87291848</v>
       </c>
       <c r="V20" t="n">
-        <v>24001.456286</v>
+        <v>25729.32093544</v>
       </c>
       <c r="W20" t="n">
         <v>1300</v>
@@ -9654,33 +9970,49 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>21,0;31,1278;41,787</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>551071.27876</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32682</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>2751.2313938</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>32753.8</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>633955.2101538</v>
+      <c r="AT20" t="n">
+        <v>20323.95</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>19362.130649552</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>673641.290803352</v>
       </c>
     </row>
     <row r="21">
@@ -9717,7 +10049,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>60</v>
@@ -9744,13 +10076,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>283409.297514</v>
+        <v>306798.1867074</v>
       </c>
       <c r="U21" t="n">
-        <v>49410.235813</v>
+        <v>53290.1678833</v>
       </c>
       <c r="V21" t="n">
-        <v>33385.59090700001</v>
+        <v>36435.41882596</v>
       </c>
       <c r="W21" t="n">
         <v>1700</v>
@@ -9789,33 +10121,49 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
+        <v>13</v>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>21,0;31,1733;41,1199</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>654168.48089</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49023</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>36371.39144895</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>65507.60000000001</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>0</v>
-      </c>
       <c r="AS21" t="n">
-        <v>824098.57233895</v>
+        <v>72041.0348089</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>35263.75</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>25899.74620359</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>891795.50335144</v>
       </c>
     </row>
     <row r="22">
@@ -9852,7 +10200,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>60</v>
@@ -9879,31 +10227,31 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>393746.153973</v>
+        <v>539974.5998060674</v>
       </c>
       <c r="U22" t="n">
-        <v>66331.85569950001</v>
+        <v>87674.12378781468</v>
       </c>
       <c r="V22" t="n">
-        <v>49631.141084</v>
+        <v>67183.05152424065</v>
       </c>
       <c r="W22" t="n">
-        <v>3380</v>
+        <v>3430</v>
       </c>
       <c r="X22" t="n">
-        <v>1440</v>
+        <v>1490</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>1650</v>
+        <v>1700</v>
       </c>
       <c r="AA22" t="n">
-        <v>2160</v>
+        <v>2210</v>
       </c>
       <c r="AB22" t="n">
-        <v>1430</v>
+        <v>1630</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -9924,33 +10272,53 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>21,0;31,3345;41,2707</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>829539.6783100001</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>87890.04122255</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>95389.39999999999</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>0</v>
-      </c>
       <c r="AS22" t="n">
-        <v>1150509.01953255</v>
+        <v>103676.5467831</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>47629.75</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>48867.374571722</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>290229.3093190003</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1545522.600206373</v>
       </c>
     </row>
     <row r="23">
@@ -9987,7 +10355,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>60</v>
@@ -10014,31 +10382,31 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>450365.3068045</v>
+        <v>693771.9664145838</v>
       </c>
       <c r="U23" t="n">
-        <v>77831.305364</v>
+        <v>116885.0441774503</v>
       </c>
       <c r="V23" t="n">
-        <v>59491.2825695</v>
+        <v>89458.32695580639</v>
       </c>
       <c r="W23" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X23" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>1790</v>
+        <v>1990</v>
       </c>
       <c r="AA23" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB23" t="n">
-        <v>1820</v>
+        <v>2620</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -10059,33 +10427,53 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>21,0;31,4517;41,3754</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>905968.1502950001</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>141609.688295725</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>151723</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>0</v>
-      </c>
       <c r="AS23" t="n">
-        <v>1343971.688590725</v>
+        <v>169825.8630059</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>87150.35000000001</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>64587.7036158265</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>517747.0460224265</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2031559.651234878</v>
       </c>
     </row>
     <row r="24">
@@ -10122,7 +10510,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>60</v>
@@ -10149,31 +10537,31 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>517425.21305</v>
+        <v>871751.5105574201</v>
       </c>
       <c r="U24" t="n">
-        <v>94298.7761</v>
+        <v>151829.84676458</v>
       </c>
       <c r="V24" t="n">
-        <v>73370.3934975</v>
+        <v>118369.9879362592</v>
       </c>
       <c r="W24" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X24" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>2070</v>
+        <v>2270</v>
       </c>
       <c r="AA24" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB24" t="n">
-        <v>2100</v>
+        <v>2900</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -10194,33 +10582,53 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>21,0;31,5500;41,4684</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>1026586.108875</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>160305.471875625</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>260818.2</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>0</v>
-      </c>
       <c r="AS24" t="n">
-        <v>1605190.030750625</v>
+        <v>301848.644355</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>139244.35</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>78077.9809006625</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>754085.5778602248</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2617628.383866512</v>
       </c>
     </row>
     <row r="25">
@@ -10257,7 +10665,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>60</v>
@@ -10284,31 +10692,31 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>654521.0965645</v>
+        <v>1488307.43861322</v>
       </c>
       <c r="U25" t="n">
-        <v>128019.866704</v>
+        <v>260121.38384868</v>
       </c>
       <c r="V25" t="n">
-        <v>101536.760824</v>
+        <v>208162.1077423306</v>
       </c>
       <c r="W25" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X25" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>2630</v>
+        <v>2830</v>
       </c>
       <c r="AA25" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB25" t="n">
-        <v>2660</v>
+        <v>3460</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -10329,33 +10737,53 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>21,0;31,7750;41,6830</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1277154.26542</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>199143.5361401</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>479008.6</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>0</v>
-      </c>
       <c r="AS25" t="n">
-        <v>2138374.0515601</v>
+        <v>581114.9412336</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>204207.7</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>108128.55625059</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>1946339.957643223</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4499156.606687513</v>
       </c>
     </row>
   </sheetData>
